--- a/AddTempTableForHive/Hive中增加的临时表.xlsx
+++ b/AddTempTableForHive/Hive中增加的临时表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>数据库名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,10 +174,6 @@
   </si>
   <si>
     <t>存储最近3个月使用1次以上的银行类APP的，用户手机IMEI码，生成一张临时表（字段：Imei1,appnamelist） group by imei1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储最近6个月使用1次以上的角色扮演类APP，用户手机IMEI码，生成一张临时表（字段：Imei1,appnamelist）group by Imei1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -236,6 +232,45 @@
   <si>
     <t>1、银行类APP条件在改一下，最近三个月使用1次以上的，生成一张临时表，然后取300万放在文件里面，把文件目录和名称告诉我。
 2、游戏类APP，改为最近6个月使用1次以上的，生成一张临时表，然后取300万放在文件里面，把文件目录和名称告诉我。游戏的如果最近6个月还是不够，你就加一些安装了角色扮演的IMEI（优先考虑oppo和vivo的手机品牌），反正要凑齐300万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp.ZZBankApplication0802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp.ZZLoanApplication0802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户要求的银行类APP表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户要求的贷款类APP表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">temp.ZZ0802_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp.ZZ0802_2 </t>
+  </si>
+  <si>
+    <t>存储最近6个月使用1次以上的角色扮演类APP，用户手机IMEI码，生成一张临时表（字段：Imei1,appnamelist）group by Imei1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近3个月使用一次及以上银行类APP的IMEI1码+银行类APP列表（字段：Imei1,appnamelist）group by Imei1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最近6个月使用一次及以上贷款类APP的IMEI1码+银行类APP列表（字段：Imei1,appnamelist）group </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、统计一下最近3个月有使用过1次以上银行、贷款APP（这是另外一个广告平台，APP名称不一样）的IMEI有多少总量。分两份统计···
+2、数据量需要300万，如果不够，就放宽时间限制改为6个月。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -333,13 +368,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,32 +421,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -687,13 +780,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -703,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -713,189 +806,242 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>43307</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="67.5">
-      <c r="A6" s="3"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="67.5">
-      <c r="A7" s="3"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="78.75">
-      <c r="A8" s="3"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="90">
-      <c r="A9" s="3"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="78.75">
-      <c r="A10" s="3"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>43311</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="9">
         <v>43312</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="15">
+        <v>43314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
